--- a/classes/1.28.19/hmws.xlsx
+++ b/classes/1.28.19/hmws.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonayzman/Documents/Teaching/CSCI 499/Spring 2019/Administration/CSCI499/classes/1.28.19/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonayzman/Dropbox/Documents/Teaching/CSCI 499/Spring 2019/Administration/CSCI499/classes/1.28.19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00638806-51E7-734E-A179-82D3F48A7905}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BE78A6-A56B-BD44-A954-D58E189615D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="1960" windowWidth="26840" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="460" windowWidth="30780" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="which-how-might-we-hmw-0s5ancai" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'which-how-might-we-hmw-0s5ancai'!$A$1:$F$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'which-how-might-we-hmw-0s5ancai'!$A$1:$F$51</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -731,10 +731,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1093,12 +1097,12 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="141.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="141.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
@@ -1127,1007 +1131,1007 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>43493.791238425925</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>23</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>24</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>43493.794409722221</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>21</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>21</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>43493.789942129632</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>20</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>20</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>43493.79482638889</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>19</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>20</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>43493.802129629628</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>17</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>19</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>43493.800787037035</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>17</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>19</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>43493.790567129632</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>15</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>16</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="4">
+        <v>43493.795578703706</v>
+      </c>
+      <c r="D9" s="3">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4">
+        <v>43493.79078703704</v>
+      </c>
+      <c r="D10" s="3">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3">
+        <v>14</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C11" s="4">
         <v>43493.80400462963</v>
       </c>
-      <c r="D9">
+      <c r="D11" s="3">
         <v>14</v>
       </c>
-      <c r="E9">
+      <c r="E11" s="3">
         <v>17</v>
       </c>
-      <c r="F9">
+      <c r="F11" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="4">
+        <v>43493.792673611111</v>
+      </c>
+      <c r="D12" s="3">
+        <v>13</v>
+      </c>
+      <c r="E12" s="3">
+        <v>15</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="4">
+        <v>43493.798402777778</v>
+      </c>
+      <c r="D13" s="3">
+        <v>13</v>
+      </c>
+      <c r="E13" s="3">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4">
+        <v>43493.800347222219</v>
+      </c>
+      <c r="D14" s="3">
+        <v>13</v>
+      </c>
+      <c r="E14" s="3">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="4">
+        <v>43493.791539351849</v>
+      </c>
+      <c r="D15" s="3">
+        <v>13</v>
+      </c>
+      <c r="E15" s="3">
+        <v>14</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4">
+        <v>43493.804965277777</v>
+      </c>
+      <c r="D16" s="3">
+        <v>11</v>
+      </c>
+      <c r="E16" s="3">
+        <v>15</v>
+      </c>
+      <c r="F16" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="4">
+        <v>43493.795451388891</v>
+      </c>
+      <c r="D17" s="3">
+        <v>11</v>
+      </c>
+      <c r="E17" s="3">
+        <v>14</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="4">
+        <v>43493.791620370372</v>
+      </c>
+      <c r="D18" s="3">
+        <v>9</v>
+      </c>
+      <c r="E18" s="3">
+        <v>11</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="4">
+        <v>43493.796331018515</v>
+      </c>
+      <c r="D19" s="3">
+        <v>9</v>
+      </c>
+      <c r="E19" s="3">
+        <v>12</v>
+      </c>
+      <c r="F19" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="4">
+        <v>43493.802175925928</v>
+      </c>
+      <c r="D20" s="3">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
+        <v>11</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="4">
+        <v>43493.793020833335</v>
+      </c>
+      <c r="D21" s="3">
+        <v>7</v>
+      </c>
+      <c r="E21" s="3">
+        <v>11</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="4">
+        <v>43493.798587962963</v>
+      </c>
+      <c r="D22" s="3">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3">
+        <v>10</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="4">
+        <v>43493.793726851851</v>
+      </c>
+      <c r="D23" s="3">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>9</v>
+      </c>
+      <c r="F23" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="4">
+        <v>43493.796875</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3">
+        <v>6</v>
+      </c>
+      <c r="F24" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="4">
+        <v>43493.793032407404</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>5</v>
+      </c>
+      <c r="F25" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="4">
+        <v>43493.80300925926</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>6</v>
+      </c>
+      <c r="F26" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="4">
+        <v>43493.804097222222</v>
+      </c>
+      <c r="D27" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>6</v>
+      </c>
+      <c r="F27" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="4">
+        <v>43493.791030092594</v>
+      </c>
+      <c r="D28" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>6</v>
+      </c>
+      <c r="F28" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="4">
+        <v>43493.796412037038</v>
+      </c>
+      <c r="D29" s="3">
+        <v>-2</v>
+      </c>
+      <c r="E29" s="3">
+        <v>6</v>
+      </c>
+      <c r="F29" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="4">
+        <v>43493.792638888888</v>
+      </c>
+      <c r="D30" s="3">
+        <v>-4</v>
+      </c>
+      <c r="E30" s="3">
+        <v>6</v>
+      </c>
+      <c r="F30" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="4">
+        <v>43493.802731481483</v>
+      </c>
+      <c r="D31" s="3">
+        <v>-4</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="4">
+        <v>43493.792766203704</v>
+      </c>
+      <c r="D32" s="3">
+        <v>-4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="4">
+        <v>43493.808796296296</v>
+      </c>
+      <c r="D33" s="3">
+        <v>-5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="4">
+        <v>43493.792557870373</v>
+      </c>
+      <c r="D34" s="3">
+        <v>-6</v>
+      </c>
+      <c r="E34" s="3">
+        <v>4</v>
+      </c>
+      <c r="F34" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="4">
+        <v>43493.792951388888</v>
+      </c>
+      <c r="D35" s="3">
+        <v>-6</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2</v>
+      </c>
+      <c r="F35" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="4">
+        <v>43493.792997685188</v>
+      </c>
+      <c r="D36" s="3">
+        <v>-6</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="4">
+        <v>43493.7969212963</v>
+      </c>
+      <c r="D37" s="3">
+        <v>-7</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2</v>
+      </c>
+      <c r="F37" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="4">
+        <v>43493.793055555558</v>
+      </c>
+      <c r="D38" s="3">
+        <v>-7</v>
+      </c>
+      <c r="E38" s="3">
+        <v>2</v>
+      </c>
+      <c r="F38" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="4">
+        <v>43493.801180555558</v>
+      </c>
+      <c r="D39" s="3">
+        <v>-9</v>
+      </c>
+      <c r="E39" s="3">
+        <v>3</v>
+      </c>
+      <c r="F39" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="4">
+        <v>43493.799131944441</v>
+      </c>
+      <c r="D40" s="3">
+        <v>-9</v>
+      </c>
+      <c r="E40" s="3">
+        <v>2</v>
+      </c>
+      <c r="F40" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="4">
+        <v>43493.792650462965</v>
+      </c>
+      <c r="D41" s="3">
+        <v>-9</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2</v>
+      </c>
+      <c r="F41" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="1">
-        <v>43493.795578703706</v>
-      </c>
-      <c r="D10">
+      <c r="C42" s="4">
+        <v>43493.792349537034</v>
+      </c>
+      <c r="D42" s="3">
+        <v>-9</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="4">
+        <v>43493.791574074072</v>
+      </c>
+      <c r="D43" s="3">
+        <v>-11</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="4">
+        <v>43493.791516203702</v>
+      </c>
+      <c r="D44" s="3">
+        <v>-11</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="4">
+        <v>43493.790798611109</v>
+      </c>
+      <c r="D45" s="3">
+        <v>-12</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="4">
+        <v>43493.796469907407</v>
+      </c>
+      <c r="D46" s="3">
+        <v>-12</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="4">
+        <v>43493.800497685188</v>
+      </c>
+      <c r="D47" s="3">
+        <v>-13</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3">
         <v>14</v>
       </c>
-      <c r="E10">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="4">
+        <v>43493.794675925928</v>
+      </c>
+      <c r="D48" s="3">
+        <v>-13</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="4">
+        <v>43493.797719907408</v>
+      </c>
+      <c r="D49" s="3">
+        <v>-14</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="4">
+        <v>43493.791805555556</v>
+      </c>
+      <c r="D50" s="3">
+        <v>-17</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1">
-        <v>43493.79078703704</v>
-      </c>
-      <c r="D11">
-        <v>14</v>
-      </c>
-      <c r="E11">
-        <v>14</v>
-      </c>
-      <c r="F11">
+      <c r="C51" s="4">
+        <v>43493.78974537037</v>
+      </c>
+      <c r="D51" s="3">
+        <v>-19</v>
+      </c>
+      <c r="E51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1">
-        <v>43493.800347222219</v>
-      </c>
-      <c r="D12">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>16</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="1">
-        <v>43493.798402777778</v>
-      </c>
-      <c r="D13">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>15</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="1">
-        <v>43493.792673611111</v>
-      </c>
-      <c r="D14">
-        <v>13</v>
-      </c>
-      <c r="E14">
-        <v>15</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="1">
-        <v>43493.791539351849</v>
-      </c>
-      <c r="D15">
-        <v>13</v>
-      </c>
-      <c r="E15">
-        <v>14</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="1">
-        <v>43493.804965277777</v>
-      </c>
-      <c r="D16">
-        <v>11</v>
-      </c>
-      <c r="E16">
-        <v>15</v>
-      </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="1">
-        <v>43493.795451388891</v>
-      </c>
-      <c r="D17">
-        <v>11</v>
-      </c>
-      <c r="E17">
-        <v>14</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="1">
-        <v>43493.796331018515</v>
-      </c>
-      <c r="D18">
-        <v>9</v>
-      </c>
-      <c r="E18">
-        <v>12</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="1">
-        <v>43493.791620370372</v>
-      </c>
-      <c r="D19">
-        <v>9</v>
-      </c>
-      <c r="E19">
-        <v>11</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="1">
-        <v>43493.802175925928</v>
-      </c>
-      <c r="D20">
-        <v>8</v>
-      </c>
-      <c r="E20">
-        <v>11</v>
-      </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="1">
-        <v>43493.798587962963</v>
-      </c>
-      <c r="D21">
-        <v>7</v>
-      </c>
-      <c r="E21">
-        <v>10</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="1">
-        <v>43493.793020833335</v>
-      </c>
-      <c r="D22">
-        <v>7</v>
-      </c>
-      <c r="E22">
-        <v>11</v>
-      </c>
-      <c r="F22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="1">
-        <v>43493.793726851851</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-      <c r="E23">
-        <v>9</v>
-      </c>
-      <c r="F23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="1">
-        <v>43493.796875</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>6</v>
-      </c>
-      <c r="F24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="1">
-        <v>43493.80300925926</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>6</v>
-      </c>
-      <c r="F25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="1">
-        <v>43493.793032407404</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>5</v>
-      </c>
-      <c r="F26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="1">
-        <v>43493.804097222222</v>
-      </c>
-      <c r="D27">
-        <v>-1</v>
-      </c>
-      <c r="E27">
-        <v>6</v>
-      </c>
-      <c r="F27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1">
-        <v>43493.791030092594</v>
-      </c>
-      <c r="D28">
-        <v>-1</v>
-      </c>
-      <c r="E28">
-        <v>6</v>
-      </c>
-      <c r="F28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="1">
-        <v>43493.796412037038</v>
-      </c>
-      <c r="D29">
-        <v>-2</v>
-      </c>
-      <c r="E29">
-        <v>6</v>
-      </c>
-      <c r="F29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="1">
-        <v>43493.802731481483</v>
-      </c>
-      <c r="D30">
-        <v>-4</v>
-      </c>
-      <c r="E30">
-        <v>4</v>
-      </c>
-      <c r="F30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="1">
-        <v>43493.792766203704</v>
-      </c>
-      <c r="D31">
-        <v>-4</v>
-      </c>
-      <c r="E31">
-        <v>4</v>
-      </c>
-      <c r="F31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="1">
-        <v>43493.792638888888</v>
-      </c>
-      <c r="D32">
-        <v>-4</v>
-      </c>
-      <c r="E32">
-        <v>6</v>
-      </c>
-      <c r="F32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="1">
-        <v>43493.808796296296</v>
-      </c>
-      <c r="D33">
-        <v>-5</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="1">
-        <v>43493.792997685188</v>
-      </c>
-      <c r="D34">
-        <v>-6</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="1">
-        <v>43493.792951388888</v>
-      </c>
-      <c r="D35">
-        <v>-6</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="1">
-        <v>43493.792557870373</v>
-      </c>
-      <c r="D36">
-        <v>-6</v>
-      </c>
-      <c r="E36">
-        <v>4</v>
-      </c>
-      <c r="F36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="1">
-        <v>43493.7969212963</v>
-      </c>
-      <c r="D37">
-        <v>-7</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="1">
-        <v>43493.793055555558</v>
-      </c>
-      <c r="D38">
-        <v>-7</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-      <c r="F38">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="1">
-        <v>43493.801180555558</v>
-      </c>
-      <c r="D39">
-        <v>-9</v>
-      </c>
-      <c r="E39">
-        <v>3</v>
-      </c>
-      <c r="F39">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="1">
-        <v>43493.799131944441</v>
-      </c>
-      <c r="D40">
-        <v>-9</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
-      <c r="F40">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="1">
-        <v>43493.792650462965</v>
-      </c>
-      <c r="D41">
-        <v>-9</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-      <c r="F41">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="1">
-        <v>43493.792349537034</v>
-      </c>
-      <c r="D42">
-        <v>-9</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="1">
-        <v>43493.791574074072</v>
-      </c>
-      <c r="D43">
-        <v>-11</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="1">
-        <v>43493.791516203702</v>
-      </c>
-      <c r="D44">
-        <v>-11</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" s="1">
-        <v>43493.796469907407</v>
-      </c>
-      <c r="D45">
-        <v>-12</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>68</v>
-      </c>
-      <c r="B46" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="1">
-        <v>43493.790798611109</v>
-      </c>
-      <c r="D46">
-        <v>-12</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="1">
-        <v>43493.800497685188</v>
-      </c>
-      <c r="D47">
-        <v>-13</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" s="1">
-        <v>43493.794675925928</v>
-      </c>
-      <c r="D48">
-        <v>-13</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49" s="1">
-        <v>43493.797719907408</v>
-      </c>
-      <c r="D49">
-        <v>-14</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>59</v>
-      </c>
-      <c r="B50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" s="1">
-        <v>43493.791805555556</v>
-      </c>
-      <c r="D50">
-        <v>-17</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>72</v>
-      </c>
-      <c r="B51" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="1">
-        <v>43493.78974537037</v>
-      </c>
-      <c r="D51">
-        <v>-19</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
+      <c r="F51" s="3">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F51" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:F51" xr:uid="{D7C49983-D1CC-DC48-AB95-22C9B26432F9}">
     <sortState ref="A2:F51">
       <sortCondition descending="1" ref="D1:D51"/>
     </sortState>
